--- a/backend/SensorData.xlsx
+++ b/backend/SensorData.xlsx
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B70"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -881,6 +881,86 @@
         <v>NaN</v>
       </c>
     </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45273.10272277778</v>
+      </c>
+      <c r="B61">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45273.102734444445</v>
+      </c>
+      <c r="B62">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45273.10274591435</v>
+      </c>
+      <c r="B63">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45273.10275755787</v>
+      </c>
+      <c r="B64">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45273.10276922454</v>
+      </c>
+      <c r="B65">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45273.10278087963</v>
+      </c>
+      <c r="B66">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45273.10279233796</v>
+      </c>
+      <c r="B67">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45273.10280400463</v>
+      </c>
+      <c r="B68">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45273.102815659724</v>
+      </c>
+      <c r="B69">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45273.10282731481</v>
+      </c>
+      <c r="B70">
+        <v>NaN</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
